--- a/files/BES_Spatial_Calibration_2017.xlsx
+++ b/files/BES_Spatial_Calibration_2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\backup\work\experiments\MAST\2021\stepper_motors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ShendR\Python\BES gui\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB90D03B-620B-403C-8CB9-245128D98D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1CFB13-BC29-4E42-AB50-E9A900446AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{21F0E263-6F40-E84A-A28F-80C55A46734B}"/>
+    <workbookView xWindow="-28920" yWindow="-2565" windowWidth="29040" windowHeight="15840" xr2:uid="{21F0E263-6F40-E84A-A28F-80C55A46734B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,12 +214,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -234,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -258,6 +264,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -7534,16 +7541,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DC3256-96B7-E244-89E5-E0200D3DEDDD}">
   <dimension ref="A2:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="10.84765625" style="2"/>
+    <col min="8" max="8" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7552,7 +7559,7 @@
       <c r="G2" s="2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
@@ -7562,7 +7569,7 @@
       <c r="G3" s="2"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -7580,7 +7587,7 @@
       <c r="G4" s="2"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
@@ -7593,7 +7600,7 @@
       <c r="G5" s="2"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>35</v>
       </c>
@@ -7606,11 +7613,11 @@
       <c r="G6" s="2"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G7" s="2"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -7619,11 +7626,11 @@
       <c r="G8" s="2"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G9" s="2"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -7658,7 +7665,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -7671,7 +7678,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -7706,7 +7713,7 @@
         <v>112000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -7741,7 +7748,7 @@
         <v>-3925</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <f>-B13</f>
@@ -7784,7 +7791,7 @@
         <v>3925</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -7797,7 +7804,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -7832,12 +7839,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -7872,7 +7879,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -7885,7 +7892,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -7920,7 +7927,7 @@
         <v>112000</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -7955,7 +7962,7 @@
         <v>-3928</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="9">
         <f>-B23</f>
@@ -7998,7 +8005,7 @@
         <v>3928</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -8011,7 +8018,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -8049,7 +8056,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -8087,7 +8094,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="9">
         <f>-B27</f>
@@ -8130,7 +8137,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -8150,14 +8157,14 @@
         <v>87627.828624999995</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="11">
         <v>123000</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="11">
         <v>123000</v>
       </c>
       <c r="D30" s="7">
@@ -8181,7 +8188,7 @@
       <c r="J30" s="7">
         <v>15000</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="11">
         <v>0</v>
       </c>
       <c r="R30" t="s">
@@ -8192,14 +8199,14 @@
         <v>12523.960749999998</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="11">
         <v>-19680</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="11">
         <v>-19680</v>
       </c>
       <c r="D31" s="7">
@@ -8223,7 +8230,7 @@
       <c r="J31" s="7">
         <v>-2401</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="11">
         <v>0</v>
       </c>
       <c r="R31" t="s">
@@ -8234,7 +8241,7 @@
         <v>37678.909999926167</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="9">
         <f>-B31</f>
@@ -8277,7 +8284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -8290,7 +8297,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
